--- a/IT13113100_SOA.xlsx
+++ b/IT13113100_SOA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4thyear\ESBPII\lab\ESBII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Narmada\Desktop\ESBPII_Lab\ESBPII_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="401">
   <si>
     <t>Clause</t>
   </si>
@@ -1243,9 +1243,6 @@
     <t>External parties involve in information processing facilities should be clearly mention. Unotherized people don’t have access for network connectivity of the bank</t>
   </si>
   <si>
-    <t>Assest and security process with responsible parties should be clearly described. Higher management +K29+K16+K29+K16+K29+K16+K29+K16+K29+K16+K29+K16</t>
-  </si>
-  <si>
     <t>Desingated parties for  information and assests associated with information should clearly mention. Ownership for majority of assests in the bank is under higher management of the bank as well as well known software and hardware suppliers.</t>
   </si>
   <si>
@@ -1329,6 +1326,120 @@
   </si>
   <si>
     <t>Practical Number : Lab 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rules and resposibilities of bank staff, third party companies and contractors are define here to protect data from unauthorized access, destroy or modification. </t>
+  </si>
+  <si>
+    <t>To protect information security related assets, all the direct stack holders should sign agreement on terms and condition to access assets. Terms and condition for the banking staff related to their position could be provide at the start day of their career</t>
+  </si>
+  <si>
+    <t>Awareness training on security polices and procedures, usage of devices, hardware/software usage and update process should be provide in to management level as well as bottom level banking staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disciplinary process for bank members and third party contractors who have committed a security breach, notedown clearly to reduce possibility of having same scenarios again </t>
+  </si>
+  <si>
+    <t>At the end of contract period or agreement commitment, accessibility for information assets should be remove from bank staff. User profile must update accessible devices like keys or identity card should return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical security for server rooms, safty lockers, ATM machines and pawning centers should be designed and applied.  </t>
+  </si>
+  <si>
+    <t>Physical barriers to protect information assts are list down under this cotegory. Build separate room for database servers,safty lockers and pawning centers are main perimeters in the bank</t>
+  </si>
+  <si>
+    <t>Physical protection against natural or man-made disasters are consider in this area. Implement servers at a safe distence, deploy powerfull alarm mechanisms and deploye powerful backup media help to survive.</t>
+  </si>
+  <si>
+    <t>Isolate assets related to information security in to secure ares, introduce polices access for unaithorized people into bank premises..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information security assets sited in secure ares to protect from environmental hazrds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infromation assets should be protect from power leackages or other distruptions. Deploy power generators,  stong telecommunication equipment, stable water supply, emergency power swithces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protect data and power cables from interception or damage. Use high quality data an power cables </t>
+  </si>
+  <si>
+    <t>Observe manufactures' information all the time, Deploy private security officers for ATM machines and sigh insurance police  to protect off- site equipments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure security controls, service definitions and delivery levels for third party service delivery agreement implemented, operated and maintained properly </t>
+  </si>
+  <si>
+    <t>Based on service delivery agreement monitor and reviewed the services, report and record regularly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-up copies of information should be taken and tested time to time acording to back up policy. Information to be backup should clearly stated with backup and recovery procedures. Mention suitable backup media and the tested mechanisms to ensure their realiability.  Process for ensure stability of backup location </t>
+  </si>
+  <si>
+    <t>To protect from threats network should be managed and controlled. WLANs' must utilize and regularly mnitor by information security officer . Network control must include layer encryptions, automatically expair frequently change encryption keys, powerfull firewalls and proxies.</t>
+  </si>
+  <si>
+    <t>Document network services agreement with security features, service levels and management requirmrnts.</t>
+  </si>
+  <si>
+    <t>Assest and security process with responsible parties should be clearly described. Higher management has the main responsibility</t>
+  </si>
+  <si>
+    <t>Formal excahnge policies, procedures and controls should be documented by information security ofiicer to avoid information interception, copying, modification or misrouting when exchange. Mention procedures for detect and protect such scenarios</t>
+  </si>
+  <si>
+    <t>Prevent online money transactions from incomplete transmission,mis routing,unatherized alternation, unauthorized disclosue or duplication. Electronis signatues, encrypted communication paths, use secure protocols for communication are the main implementations.</t>
+  </si>
+  <si>
+    <t>Protect publicly available information from unautherized modification using digital signature, hashing mechanisms, or encrypting algorithms</t>
+  </si>
+  <si>
+    <t>Record user activities, exceptions and information security events for agreed period of time to ensure the information security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedures for monitoring use of information processing facilities must establish . Monitering activity reviwed time to time for enhace the efficeincy </t>
+  </si>
+  <si>
+    <t>Access control rules and rights for each user groups should clearly statedincluding both physically logically important assets. Provide clear statement of the business requirments to be met by access control to users and service providers.</t>
+  </si>
+  <si>
+    <t>For grant and revoke access to information assets provide formal user registrstion and de registration procedure.Procedures includes user ID or group ID for logging to the banking syatems.provide separate approvels for user loggings, give wriiten document on access rights,maintain formal record for each user, periodically checking for adding or removing IDs'</t>
+  </si>
+  <si>
+    <t>Provide controlled password allocation, include sign a statement to keep password, allow user to maintain their passwords,provide acknowledge recipt of password, password protection tips,default vendor passwords software products.</t>
+  </si>
+  <si>
+    <t>Acusers to follow good security practices in password selection and use. Methods to keep password confidential,select quality password, change password at regular intervals and avoid re using old passwords should mention clearly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow users only to access services that they have been speciffically authorized to use by providing contrll network access </t>
+  </si>
+  <si>
+    <t>Introduce appropriate athentication methods to control access by remote users.Remote user authenticate via crayptograpic technics,  dial back modems, node authentication are the proceduce can be use</t>
+  </si>
+  <si>
+    <t>Provide controll access to diagnostic and configuration ports using key locks or supporting procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide secure access to operating system by providing secure log-on procedures. Disply general notice on computer, that it is only accessed by authorized user,validate log-on information after entering all the input data,limit number of un succesfull attempts are key features </t>
+  </si>
+  <si>
+    <t>Documented and approved process to allow users to have unique identifier.Bank should provide strong authentication and verification procees to identify userID and also users should be carefull to use userID for authorized activities only</t>
+  </si>
+  <si>
+    <t>System to ensure quality of the passwords which enforce users to choose quality passwords, change password,change temporary password at the fist log-on, maintain password history records and store password files separate from application system dat</t>
+  </si>
+  <si>
+    <t>Inactive sessions shoutdown after defined period of inactivity</t>
+  </si>
+  <si>
+    <t>Provide limitations on connection times using predetermine time slots, restricting connection times, and re authentication at timed intervals</t>
+  </si>
+  <si>
+    <t>Provide restrictions to access based on business application requirements. Providing menus to control access to application system functions,controlling access rights to users and other applications are way to implemet the control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isolate critical data in dedicated/isolated computing environment. </t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1970,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2029,6 +2140,54 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2059,8 +2218,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2116,44 +2278,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2582,131 +2706,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="67" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="69" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F3" s="97"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="98" t="s">
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F6" s="71" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="F5" s="99"/>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F6" s="100" t="s">
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="72" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="74" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-    </row>
-    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-    </row>
-    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="103" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-    </row>
-    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="103" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+    </row>
+    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+    </row>
+    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="74" t="s">
         <v>360</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-    </row>
-    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-    </row>
-    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="103" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-    </row>
-    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-    </row>
-    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+    </row>
+    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+    </row>
+    <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+    </row>
+    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-    </row>
-    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="F22" s="96"/>
+      <c r="F22" s="67"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2786,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K482"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2796,13 +2920,13 @@
     <col min="2" max="2" width="17.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="131.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
@@ -2828,33 +2952,33 @@
     </row>
     <row r="5" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="103" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="97" t="s">
         <v>318</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76" t="s">
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="20" t="s">
         <v>306</v>
       </c>
@@ -2867,7 +2991,7 @@
       <c r="J7" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="K7" s="77"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -2888,25 +3012,25 @@
       <c r="K8" s="51"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="80" t="s">
         <v>334</v>
       </c>
       <c r="C9" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="49"/>
     </row>
-    <row r="10" spans="2:11" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="62"/>
+    <row r="10" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="80"/>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2916,7 +3040,9 @@
       <c r="E10" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="77" t="s">
+        <v>315</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
@@ -2925,12 +3051,12 @@
       <c r="J10" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="64" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
+    <row r="11" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="81"/>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2949,7 +3075,7 @@
         <v>310</v>
       </c>
       <c r="J11" s="12"/>
-      <c r="K11" s="93" t="s">
+      <c r="K11" s="64" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2966,7 +3092,7 @@
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="88" t="s">
         <v>335</v>
       </c>
       <c r="C13" s="4">
@@ -2984,7 +3110,7 @@
       <c r="K13" s="36"/>
     </row>
     <row r="14" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="70"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2992,7 +3118,9 @@
         <v>10</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="78" t="s">
+        <v>315</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -3000,7 +3128,7 @@
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="70"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
@@ -3015,8 +3143,8 @@
       <c r="J15" s="12"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="2:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="70"/>
+    <row r="16" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="88"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3026,7 +3154,9 @@
       <c r="E16" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="G16" s="12" t="s">
         <v>310</v>
       </c>
@@ -3037,12 +3167,12 @@
       <c r="J16" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K16" s="93" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="70"/>
+      <c r="K16" s="64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="88"/>
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
@@ -3052,7 +3182,9 @@
       <c r="E17" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="G17" s="12" t="s">
         <v>310</v>
       </c>
@@ -3061,12 +3193,12 @@
         <v>310</v>
       </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="94" t="s">
+      <c r="K17" s="65" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="70"/>
+    <row r="18" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="88"/>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3076,7 +3208,9 @@
       <c r="E18" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="64" t="s">
+        <v>315</v>
+      </c>
       <c r="G18" s="12" t="s">
         <v>310</v>
       </c>
@@ -3087,12 +3221,12 @@
         <v>310</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="94" t="s">
+      <c r="K18" s="65" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="70"/>
+    <row r="19" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="88"/>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -3102,7 +3236,9 @@
       <c r="E19" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="78" t="s">
+        <v>315</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
@@ -3111,12 +3247,12 @@
       <c r="J19" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K19" s="95" t="s">
+      <c r="K19" s="66" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="70"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -3132,7 +3268,7 @@
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="70"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
@@ -3148,7 +3284,7 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="70"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="4">
         <v>6.2</v>
       </c>
@@ -3163,8 +3299,8 @@
       <c r="J22" s="38"/>
       <c r="K22" s="36"/>
     </row>
-    <row r="23" spans="2:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="70"/>
+    <row r="23" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="88"/>
       <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
@@ -3174,19 +3310,21 @@
       <c r="E23" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="G23" s="12" t="s">
         <v>310</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="93" t="s">
+      <c r="K23" s="64" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="70"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
@@ -3202,7 +3340,7 @@
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="70"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3230,7 +3368,7 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="100" t="s">
         <v>336</v>
       </c>
       <c r="C27" s="4">
@@ -3248,7 +3386,7 @@
       <c r="K27" s="36"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="82"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
@@ -3263,8 +3401,8 @@
       <c r="J28" s="12"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="2:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="82"/>
+    <row r="29" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="101"/>
       <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3274,7 +3412,9 @@
       <c r="E29" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="G29" s="12" t="s">
         <v>310</v>
       </c>
@@ -3285,12 +3425,12 @@
       <c r="J29" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K29" s="93" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="82"/>
+      <c r="K29" s="64" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="101"/>
       <c r="C30" s="3" t="s">
         <v>36</v>
       </c>
@@ -3300,17 +3440,19 @@
       <c r="E30" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="93" t="s">
-        <v>354</v>
+      <c r="K30" s="64" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="82"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="4">
         <v>7.2</v>
       </c>
@@ -3326,7 +3468,7 @@
       <c r="K31" s="36"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="82"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
@@ -3339,10 +3481,10 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="79"/>
+      <c r="K32" s="98"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="83"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="5" t="s">
         <v>40</v>
       </c>
@@ -3355,7 +3497,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="80"/>
+      <c r="K33" s="99"/>
     </row>
     <row r="34" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="41"/>
@@ -3370,7 +3512,7 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="100" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="4">
@@ -3387,8 +3529,8 @@
       <c r="J35" s="38"/>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="82"/>
+    <row r="36" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="101"/>
       <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3398,15 +3540,27 @@
       <c r="E36" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="82"/>
+      <c r="F36" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="101"/>
       <c r="C37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3421,8 +3575,8 @@
       <c r="J37" s="12"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="82"/>
+    <row r="38" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="101"/>
       <c r="C38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3432,15 +3586,25 @@
       <c r="E38" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="F38" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J38" s="12"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="82"/>
+      <c r="K38" s="64" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="101"/>
       <c r="C39" s="4">
         <v>8.1999999999999993</v>
       </c>
@@ -3455,8 +3619,8 @@
       <c r="J39" s="38"/>
       <c r="K39" s="36"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="82"/>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="101"/>
       <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
@@ -3471,8 +3635,8 @@
       <c r="J40" s="12"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="82"/>
+    <row r="41" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="101"/>
       <c r="C41" s="3" t="s">
         <v>52</v>
       </c>
@@ -3482,15 +3646,23 @@
       <c r="E41" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="82"/>
+      <c r="I41" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K41" s="64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="101"/>
       <c r="C42" s="3" t="s">
         <v>54</v>
       </c>
@@ -3500,15 +3672,23 @@
       <c r="E42" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J42" s="12"/>
-      <c r="K42" s="17"/>
+      <c r="K42" s="64" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="82"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="4">
         <v>8.3000000000000007</v>
       </c>
@@ -3524,7 +3704,7 @@
       <c r="K43" s="36"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="82"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="3" t="s">
         <v>57</v>
       </c>
@@ -3540,7 +3720,7 @@
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="82"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="3" t="s">
         <v>59</v>
       </c>
@@ -3555,24 +3735,34 @@
       <c r="J45" s="12"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
+    <row r="46" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="101"/>
       <c r="C46" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="17"/>
+      <c r="J46" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K46" s="64" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="83"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="3"/>
       <c r="D47" s="26"/>
       <c r="E47" s="11"/>
@@ -3596,7 +3786,7 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="88" t="s">
         <v>338</v>
       </c>
       <c r="C49" s="4">
@@ -3613,8 +3803,8 @@
       <c r="J49" s="38"/>
       <c r="K49" s="36"/>
     </row>
-    <row r="50" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B50" s="70"/>
+    <row r="50" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="88"/>
       <c r="C50" s="3" t="s">
         <v>64</v>
       </c>
@@ -3632,11 +3822,15 @@
         <v>310</v>
       </c>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B51" s="70"/>
+      <c r="J50" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K50" s="64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="88"/>
       <c r="C51" s="3" t="s">
         <v>66</v>
       </c>
@@ -3659,12 +3853,12 @@
       <c r="J51" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K51" s="18" t="s">
+      <c r="K51" s="65" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B52" s="70"/>
+    <row r="52" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="88"/>
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
@@ -3677,16 +3871,20 @@
       <c r="F52" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="G52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K52" s="17"/>
-    </row>
-    <row r="53" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B53" s="70"/>
+      <c r="K52" s="64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="88"/>
       <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
@@ -3696,17 +3894,25 @@
       <c r="E53" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="G53" s="12"/>
+      <c r="G53" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="17"/>
-    </row>
-    <row r="54" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B54" s="70"/>
+      <c r="I53" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K53" s="64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="88"/>
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
@@ -3729,8 +3935,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B55" s="70"/>
+    <row r="55" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="88"/>
       <c r="C55" s="3" t="s">
         <v>74</v>
       </c>
@@ -3745,12 +3951,16 @@
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="I55" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J55" s="12"/>
-      <c r="K55" s="17"/>
+      <c r="K55" s="64" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="70"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="4">
         <v>9.1999999999999993</v>
       </c>
@@ -3765,8 +3975,8 @@
       <c r="J56" s="38"/>
       <c r="K56" s="36"/>
     </row>
-    <row r="57" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B57" s="70"/>
+    <row r="57" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="88"/>
       <c r="C57" s="3" t="s">
         <v>77</v>
       </c>
@@ -3787,10 +3997,12 @@
       <c r="J57" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B58" s="70"/>
+      <c r="K57" s="64" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="88"/>
       <c r="C58" s="3" t="s">
         <v>79</v>
       </c>
@@ -3809,10 +4021,12 @@
       <c r="J58" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B59" s="70"/>
+      <c r="K58" s="64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="88"/>
       <c r="C59" s="3" t="s">
         <v>81</v>
       </c>
@@ -3831,10 +4045,12 @@
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B60" s="70"/>
+      <c r="K59" s="64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="88"/>
       <c r="C60" s="3" t="s">
         <v>83</v>
       </c>
@@ -3861,8 +4077,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="70"/>
+    <row r="61" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="88"/>
       <c r="C61" s="3" t="s">
         <v>85</v>
       </c>
@@ -3877,12 +4093,18 @@
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="17"/>
+      <c r="I61" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K61" s="64" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="70"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="3" t="s">
         <v>87</v>
       </c>
@@ -3902,7 +4124,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="70"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="3" t="s">
         <v>89</v>
       </c>
@@ -3918,7 +4140,7 @@
       <c r="K63" s="17"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="70"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="3"/>
       <c r="D64" s="26"/>
       <c r="E64" s="11"/>
@@ -3942,7 +4164,7 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="79" t="s">
         <v>339</v>
       </c>
       <c r="C66" s="4">
@@ -3960,7 +4182,7 @@
       <c r="K66" s="36"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="62"/>
+      <c r="B67" s="80"/>
       <c r="C67" s="3" t="s">
         <v>92</v>
       </c>
@@ -3976,7 +4198,7 @@
       <c r="K67" s="18"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="62"/>
+      <c r="B68" s="80"/>
       <c r="C68" s="3" t="s">
         <v>94</v>
       </c>
@@ -3992,7 +4214,7 @@
       <c r="K68" s="18"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="62"/>
+      <c r="B69" s="80"/>
       <c r="C69" s="3" t="s">
         <v>96</v>
       </c>
@@ -4008,7 +4230,7 @@
       <c r="K69" s="17"/>
     </row>
     <row r="70" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B70" s="62"/>
+      <c r="B70" s="80"/>
       <c r="C70" s="3" t="s">
         <v>98</v>
       </c>
@@ -4024,7 +4246,7 @@
       <c r="K70" s="17"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="62"/>
+      <c r="B71" s="80"/>
       <c r="C71" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -4039,8 +4261,8 @@
       <c r="J71" s="38"/>
       <c r="K71" s="36"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="62"/>
+    <row r="72" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="80"/>
       <c r="C72" s="14" t="s">
         <v>101</v>
       </c>
@@ -4050,15 +4272,23 @@
       <c r="E72" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="F72" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="62"/>
+      <c r="K72" s="64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="80"/>
       <c r="C73" s="14" t="s">
         <v>103</v>
       </c>
@@ -4068,15 +4298,21 @@
       <c r="E73" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F73" s="17"/>
+      <c r="F73" s="64" t="s">
+        <v>315</v>
+      </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
+      <c r="I73" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J73" s="12"/>
-      <c r="K73" s="17"/>
+      <c r="K73" s="64" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="62"/>
+      <c r="B74" s="80"/>
       <c r="C74" s="14" t="s">
         <v>105</v>
       </c>
@@ -4092,7 +4328,7 @@
       <c r="K74" s="17"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="62"/>
+      <c r="B75" s="80"/>
       <c r="C75" s="4">
         <v>10.3</v>
       </c>
@@ -4108,7 +4344,7 @@
       <c r="K75" s="36"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="62"/>
+      <c r="B76" s="80"/>
       <c r="C76" s="3" t="s">
         <v>108</v>
       </c>
@@ -4124,7 +4360,7 @@
       <c r="K76" s="18"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="62"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="3" t="s">
         <v>110</v>
       </c>
@@ -4140,7 +4376,7 @@
       <c r="K77" s="18"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="62"/>
+      <c r="B78" s="80"/>
       <c r="C78" s="4">
         <v>10.4</v>
       </c>
@@ -4156,7 +4392,7 @@
       <c r="K78" s="36"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="62"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="3" t="s">
         <v>113</v>
       </c>
@@ -4172,7 +4408,7 @@
       <c r="K79" s="17"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="62"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="3" t="s">
         <v>115</v>
       </c>
@@ -4188,7 +4424,7 @@
       <c r="K80" s="17"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="62"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="4">
         <v>10.5</v>
       </c>
@@ -4203,8 +4439,8 @@
       <c r="J81" s="38"/>
       <c r="K81" s="36"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="62"/>
+    <row r="82" spans="2:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="80"/>
       <c r="C82" s="3" t="s">
         <v>118</v>
       </c>
@@ -4214,15 +4450,23 @@
       <c r="E82" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F82" s="17"/>
+      <c r="F82" s="64" t="s">
+        <v>315</v>
+      </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="18"/>
+      <c r="I82" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K82" s="65" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="62"/>
+      <c r="B83" s="80"/>
       <c r="C83" s="4">
         <v>10.6</v>
       </c>
@@ -4237,8 +4481,8 @@
       <c r="J83" s="38"/>
       <c r="K83" s="36"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="62"/>
+    <row r="84" spans="2:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="80"/>
       <c r="C84" s="3" t="s">
         <v>121</v>
       </c>
@@ -4248,15 +4492,25 @@
       <c r="E84" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="12"/>
+      <c r="F84" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="17"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="62"/>
+      <c r="I84" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K84" s="64" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="80"/>
       <c r="C85" s="3" t="s">
         <v>123</v>
       </c>
@@ -4266,15 +4520,23 @@
       <c r="E85" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="12"/>
+      <c r="F85" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J85" s="12"/>
-      <c r="K85" s="17"/>
+      <c r="K85" s="64" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="62"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="4">
         <v>10.7</v>
       </c>
@@ -4290,7 +4552,7 @@
       <c r="K86" s="36"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="62"/>
+      <c r="B87" s="80"/>
       <c r="C87" s="3" t="s">
         <v>126</v>
       </c>
@@ -4306,7 +4568,7 @@
       <c r="K87" s="18"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="62"/>
+      <c r="B88" s="80"/>
       <c r="C88" s="3" t="s">
         <v>128</v>
       </c>
@@ -4322,7 +4584,7 @@
       <c r="K88" s="18"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="62"/>
+      <c r="B89" s="80"/>
       <c r="C89" s="3" t="s">
         <v>130</v>
       </c>
@@ -4338,7 +4600,7 @@
       <c r="K89" s="17"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="62"/>
+      <c r="B90" s="80"/>
       <c r="C90" s="3" t="s">
         <v>132</v>
       </c>
@@ -4354,7 +4616,7 @@
       <c r="K90" s="17"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="62"/>
+      <c r="B91" s="80"/>
       <c r="C91" s="4">
         <v>10.8</v>
       </c>
@@ -4369,8 +4631,8 @@
       <c r="J91" s="38"/>
       <c r="K91" s="36"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="62"/>
+    <row r="92" spans="2:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="80"/>
       <c r="C92" s="3" t="s">
         <v>135</v>
       </c>
@@ -4380,15 +4642,25 @@
       <c r="E92" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F92" s="71"/>
-      <c r="G92" s="12"/>
+      <c r="F92" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="17"/>
+      <c r="I92" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K92" s="64" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="62"/>
+      <c r="B93" s="80"/>
       <c r="C93" s="3" t="s">
         <v>137</v>
       </c>
@@ -4396,7 +4668,7 @@
         <v>138</v>
       </c>
       <c r="E93" s="12"/>
-      <c r="F93" s="66"/>
+      <c r="F93" s="90"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -4404,7 +4676,7 @@
       <c r="K93" s="17"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="62"/>
+      <c r="B94" s="80"/>
       <c r="C94" s="3" t="s">
         <v>139</v>
       </c>
@@ -4420,7 +4692,7 @@
       <c r="K94" s="18"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="62"/>
+      <c r="B95" s="80"/>
       <c r="C95" s="3" t="s">
         <v>141</v>
       </c>
@@ -4436,7 +4708,7 @@
       <c r="K95" s="17"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B96" s="62"/>
+      <c r="B96" s="80"/>
       <c r="C96" s="3" t="s">
         <v>143</v>
       </c>
@@ -4452,7 +4724,7 @@
       <c r="K96" s="17"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B97" s="62"/>
+      <c r="B97" s="80"/>
       <c r="C97" s="4">
         <v>10.9</v>
       </c>
@@ -4468,7 +4740,7 @@
       <c r="K97" s="36"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="62"/>
+      <c r="B98" s="80"/>
       <c r="C98" s="3" t="s">
         <v>146</v>
       </c>
@@ -4483,8 +4755,8 @@
       <c r="J98" s="12"/>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="62"/>
+    <row r="99" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="80"/>
       <c r="C99" s="3" t="s">
         <v>148</v>
       </c>
@@ -4494,15 +4766,23 @@
       <c r="E99" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="F99" s="17"/>
+      <c r="F99" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="17"/>
+      <c r="I99" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K99" s="64" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="62"/>
+      <c r="B100" s="80"/>
       <c r="C100" s="3" t="s">
         <v>150</v>
       </c>
@@ -4512,15 +4792,23 @@
       <c r="E100" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="12"/>
+      <c r="F100" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="17"/>
+      <c r="J100" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K100" s="64" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="62"/>
+      <c r="B101" s="80"/>
       <c r="C101" s="6">
         <v>10.1</v>
       </c>
@@ -4536,7 +4824,7 @@
       <c r="K101" s="36"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="62"/>
+      <c r="B102" s="80"/>
       <c r="C102" s="3" t="s">
         <v>153</v>
       </c>
@@ -4546,15 +4834,25 @@
       <c r="E102" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="F102" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J102" s="12"/>
-      <c r="K102" s="17"/>
+      <c r="K102" s="64" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="62"/>
+      <c r="B103" s="80"/>
       <c r="C103" s="3" t="s">
         <v>155</v>
       </c>
@@ -4564,15 +4862,23 @@
       <c r="E103" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="12"/>
+      <c r="F103" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J103" s="12"/>
-      <c r="K103" s="17"/>
+      <c r="K103" s="64" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="62"/>
+      <c r="B104" s="80"/>
       <c r="C104" s="3" t="s">
         <v>157</v>
       </c>
@@ -4588,7 +4894,7 @@
       <c r="K104" s="17"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="62"/>
+      <c r="B105" s="80"/>
       <c r="C105" s="3" t="s">
         <v>159</v>
       </c>
@@ -4604,7 +4910,7 @@
       <c r="K105" s="17"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="62"/>
+      <c r="B106" s="80"/>
       <c r="C106" s="3" t="s">
         <v>161</v>
       </c>
@@ -4620,7 +4926,7 @@
       <c r="K106" s="17"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="63"/>
+      <c r="B107" s="81"/>
       <c r="C107" s="5" t="s">
         <v>163</v>
       </c>
@@ -4648,7 +4954,7 @@
       <c r="K108" s="39"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="61" t="s">
+      <c r="B109" s="79" t="s">
         <v>340</v>
       </c>
       <c r="C109" s="2">
@@ -4665,8 +4971,8 @@
       <c r="J109" s="38"/>
       <c r="K109" s="36"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="62"/>
+    <row r="110" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="80"/>
       <c r="C110" s="3" t="s">
         <v>166</v>
       </c>
@@ -4676,15 +4982,25 @@
       <c r="E110" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
+      <c r="F110" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J110" s="12"/>
-      <c r="K110" s="17"/>
+      <c r="K110" s="64" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="62"/>
+      <c r="B111" s="80"/>
       <c r="C111" s="4">
         <v>11.2</v>
       </c>
@@ -4699,8 +5015,8 @@
       <c r="J111" s="38"/>
       <c r="K111" s="42"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="62"/>
+    <row r="112" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="80"/>
       <c r="C112" s="3" t="s">
         <v>169</v>
       </c>
@@ -4710,15 +5026,27 @@
       <c r="E112" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="18"/>
+      <c r="F112" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K112" s="65" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="62"/>
+      <c r="B113" s="80"/>
       <c r="C113" s="3" t="s">
         <v>171</v>
       </c>
@@ -4733,8 +5061,8 @@
       <c r="J113" s="12"/>
       <c r="K113" s="17"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="62"/>
+    <row r="114" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="80"/>
       <c r="C114" s="3" t="s">
         <v>173</v>
       </c>
@@ -4744,15 +5072,25 @@
       <c r="E114" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F114" s="17"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
+      <c r="F114" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J114" s="12"/>
-      <c r="K114" s="18"/>
+      <c r="K114" s="65" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="62"/>
+      <c r="B115" s="80"/>
       <c r="C115" s="3" t="s">
         <v>175</v>
       </c>
@@ -4768,7 +5106,7 @@
       <c r="K115" s="18"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="62"/>
+      <c r="B116" s="80"/>
       <c r="C116" s="4">
         <v>11.3</v>
       </c>
@@ -4783,8 +5121,8 @@
       <c r="J116" s="38"/>
       <c r="K116" s="36"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="62"/>
+    <row r="117" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="80"/>
       <c r="C117" s="3" t="s">
         <v>178</v>
       </c>
@@ -4794,15 +5132,25 @@
       <c r="E117" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="12"/>
+      <c r="F117" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="18"/>
+      <c r="I117" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K117" s="65" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="62"/>
+      <c r="B118" s="80"/>
       <c r="C118" s="3" t="s">
         <v>180</v>
       </c>
@@ -4818,7 +5166,7 @@
       <c r="K118" s="18"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="62"/>
+      <c r="B119" s="80"/>
       <c r="C119" s="3" t="s">
         <v>182</v>
       </c>
@@ -4834,7 +5182,7 @@
       <c r="K119" s="17"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="62"/>
+      <c r="B120" s="80"/>
       <c r="C120" s="4">
         <v>11.4</v>
       </c>
@@ -4850,7 +5198,7 @@
       <c r="K120" s="36"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" s="62"/>
+      <c r="B121" s="80"/>
       <c r="C121" s="3" t="s">
         <v>185</v>
       </c>
@@ -4860,15 +5208,27 @@
       <c r="E121" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="17"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="62"/>
+      <c r="F121" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K121" s="64" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="80"/>
       <c r="C122" s="3" t="s">
         <v>187</v>
       </c>
@@ -4878,15 +5238,23 @@
       <c r="E122" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F122" s="17"/>
+      <c r="F122" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="17"/>
+      <c r="I122" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K122" s="64" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="62"/>
+      <c r="B123" s="80"/>
       <c r="C123" s="3" t="s">
         <v>189</v>
       </c>
@@ -4902,7 +5270,7 @@
       <c r="K123" s="17"/>
     </row>
     <row r="124" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B124" s="62"/>
+      <c r="B124" s="80"/>
       <c r="C124" s="3" t="s">
         <v>191</v>
       </c>
@@ -4912,15 +5280,23 @@
       <c r="E124" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F124" s="17"/>
+      <c r="F124" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="17"/>
+      <c r="I124" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K124" s="64" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="62"/>
+      <c r="B125" s="80"/>
       <c r="C125" s="3" t="s">
         <v>193</v>
       </c>
@@ -4936,7 +5312,7 @@
       <c r="K125" s="17"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="62"/>
+      <c r="B126" s="80"/>
       <c r="C126" s="3" t="s">
         <v>195</v>
       </c>
@@ -4952,7 +5328,7 @@
       <c r="K126" s="17"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="62"/>
+      <c r="B127" s="80"/>
       <c r="C127" s="3" t="s">
         <v>197</v>
       </c>
@@ -4968,7 +5344,7 @@
       <c r="K127" s="17"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B128" s="62"/>
+      <c r="B128" s="80"/>
       <c r="C128" s="4">
         <v>11.5</v>
       </c>
@@ -4983,8 +5359,8 @@
       <c r="J128" s="38"/>
       <c r="K128" s="36"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" s="62"/>
+    <row r="129" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="80"/>
       <c r="C129" s="3" t="s">
         <v>200</v>
       </c>
@@ -4994,15 +5370,25 @@
       <c r="E129" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="12"/>
+      <c r="F129" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="17"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="62"/>
+      <c r="I129" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K129" s="64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="80"/>
       <c r="C130" s="3" t="s">
         <v>202</v>
       </c>
@@ -5012,15 +5398,25 @@
       <c r="E130" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F130" s="17"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
+      <c r="F130" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="J130" s="12"/>
-      <c r="K130" s="17"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="62"/>
+      <c r="K130" s="64" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B131" s="80"/>
       <c r="C131" s="3" t="s">
         <v>204</v>
       </c>
@@ -5030,15 +5426,25 @@
       <c r="E131" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F131" s="17"/>
+      <c r="F131" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="17"/>
+      <c r="H131" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K131" s="64" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="62"/>
+      <c r="B132" s="80"/>
       <c r="C132" s="3" t="s">
         <v>206</v>
       </c>
@@ -5049,12 +5455,12 @@
       <c r="F132" s="17"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="17"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
+      <c r="K132" s="76"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="62"/>
+      <c r="B133" s="80"/>
       <c r="C133" s="3" t="s">
         <v>208</v>
       </c>
@@ -5064,15 +5470,23 @@
       <c r="E133" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F133" s="17"/>
+      <c r="F133" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="17"/>
+      <c r="I133" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K133" s="64" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" s="62"/>
+      <c r="B134" s="80"/>
       <c r="C134" s="3" t="s">
         <v>210</v>
       </c>
@@ -5082,15 +5496,23 @@
       <c r="E134" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F134" s="17"/>
+      <c r="F134" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="17"/>
+      <c r="I134" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K134" s="64" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="62"/>
+      <c r="B135" s="80"/>
       <c r="C135" s="4">
         <v>11.6</v>
       </c>
@@ -5105,8 +5527,8 @@
       <c r="J135" s="38"/>
       <c r="K135" s="36"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B136" s="62"/>
+    <row r="136" spans="2:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="80"/>
       <c r="C136" s="3" t="s">
         <v>213</v>
       </c>
@@ -5116,15 +5538,23 @@
       <c r="E136" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F136" s="17"/>
+      <c r="F136" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="17"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B137" s="62"/>
+      <c r="I136" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K136" s="64" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="80"/>
       <c r="C137" s="3" t="s">
         <v>215</v>
       </c>
@@ -5134,15 +5564,19 @@
       <c r="E137" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F137" s="17"/>
+      <c r="F137" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
-      <c r="K137" s="17"/>
+      <c r="K137" s="64" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B138" s="62"/>
+      <c r="B138" s="80"/>
       <c r="C138" s="4">
         <v>11.7</v>
       </c>
@@ -5158,7 +5592,7 @@
       <c r="K138" s="36"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B139" s="62"/>
+      <c r="B139" s="80"/>
       <c r="C139" s="3" t="s">
         <v>218</v>
       </c>
@@ -5174,7 +5608,7 @@
       <c r="K139" s="17"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B140" s="62"/>
+      <c r="B140" s="80"/>
       <c r="C140" s="3" t="s">
         <v>220</v>
       </c>
@@ -5190,7 +5624,7 @@
       <c r="K140" s="17"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B141" s="63"/>
+      <c r="B141" s="81"/>
       <c r="C141" s="5"/>
       <c r="D141" s="31"/>
       <c r="E141" s="11"/>
@@ -5214,7 +5648,7 @@
       <c r="K142" s="39"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B143" s="70" t="s">
+      <c r="B143" s="88" t="s">
         <v>341</v>
       </c>
       <c r="C143" s="4">
@@ -5232,16 +5666,14 @@
       <c r="K143" s="36"/>
     </row>
     <row r="144" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B144" s="70"/>
+      <c r="B144" s="88"/>
       <c r="C144" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D144" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="E144" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E144" s="12"/>
       <c r="F144" s="17"/>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
@@ -5250,7 +5682,7 @@
       <c r="K144" s="17"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B145" s="70"/>
+      <c r="B145" s="88"/>
       <c r="C145" s="4">
         <v>12.2</v>
       </c>
@@ -5266,16 +5698,14 @@
       <c r="K145" s="36"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="70"/>
+      <c r="B146" s="88"/>
       <c r="C146" s="3" t="s">
         <v>226</v>
       </c>
       <c r="D146" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E146" s="12"/>
       <c r="F146" s="17"/>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
@@ -5284,16 +5714,14 @@
       <c r="K146" s="17"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B147" s="70"/>
+      <c r="B147" s="88"/>
       <c r="C147" s="3" t="s">
         <v>228</v>
       </c>
       <c r="D147" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="E147" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E147" s="12"/>
       <c r="F147" s="17"/>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -5302,16 +5730,14 @@
       <c r="K147" s="17"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B148" s="70"/>
+      <c r="B148" s="88"/>
       <c r="C148" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D148" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="E148" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E148" s="12"/>
       <c r="F148" s="17"/>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -5320,16 +5746,14 @@
       <c r="K148" s="17"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B149" s="70"/>
+      <c r="B149" s="88"/>
       <c r="C149" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D149" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="E149" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E149" s="12"/>
       <c r="F149" s="17"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -5338,7 +5762,7 @@
       <c r="K149" s="17"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B150" s="70"/>
+      <c r="B150" s="88"/>
       <c r="C150" s="4">
         <v>12.3</v>
       </c>
@@ -5354,25 +5778,23 @@
       <c r="K150" s="36"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B151" s="70"/>
+      <c r="B151" s="88"/>
       <c r="C151" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D151" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="E151" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E151" s="12"/>
       <c r="F151" s="17"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
-      <c r="K151" s="65"/>
+      <c r="K151" s="83"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B152" s="70"/>
+      <c r="B152" s="88"/>
       <c r="C152" s="3" t="s">
         <v>237</v>
       </c>
@@ -5385,10 +5807,10 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
-      <c r="K152" s="66"/>
+      <c r="K152" s="84"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B153" s="70"/>
+      <c r="B153" s="88"/>
       <c r="C153" s="4">
         <v>12.4</v>
       </c>
@@ -5404,16 +5826,14 @@
       <c r="K153" s="36"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B154" s="70"/>
+      <c r="B154" s="88"/>
       <c r="C154" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D154" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="E154" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E154" s="12"/>
       <c r="F154" s="17"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -5422,16 +5842,14 @@
       <c r="K154" s="17"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B155" s="70"/>
+      <c r="B155" s="88"/>
       <c r="C155" s="3" t="s">
         <v>242</v>
       </c>
       <c r="D155" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="E155" s="59" t="s">
-        <v>310</v>
-      </c>
+      <c r="E155" s="59"/>
       <c r="F155" s="17"/>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -5440,7 +5858,7 @@
       <c r="K155" s="17"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B156" s="70"/>
+      <c r="B156" s="88"/>
       <c r="C156" s="3" t="s">
         <v>244</v>
       </c>
@@ -5456,7 +5874,7 @@
       <c r="K156" s="17"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B157" s="70"/>
+      <c r="B157" s="88"/>
       <c r="C157" s="4">
         <v>12.5</v>
       </c>
@@ -5472,16 +5890,14 @@
       <c r="K157" s="36"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B158" s="70"/>
+      <c r="B158" s="88"/>
       <c r="C158" s="3" t="s">
         <v>246</v>
       </c>
       <c r="D158" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="E158" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E158" s="12"/>
       <c r="F158" s="17"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -5490,7 +5906,7 @@
       <c r="K158" s="17"/>
     </row>
     <row r="159" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B159" s="70"/>
+      <c r="B159" s="88"/>
       <c r="C159" s="3" t="s">
         <v>248</v>
       </c>
@@ -5506,7 +5922,7 @@
       <c r="K159" s="17"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B160" s="70"/>
+      <c r="B160" s="88"/>
       <c r="C160" s="3" t="s">
         <v>250</v>
       </c>
@@ -5522,7 +5938,7 @@
       <c r="K160" s="17"/>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B161" s="70"/>
+      <c r="B161" s="88"/>
       <c r="C161" s="3" t="s">
         <v>252</v>
       </c>
@@ -5538,7 +5954,7 @@
       <c r="K161" s="17"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B162" s="70"/>
+      <c r="B162" s="88"/>
       <c r="C162" s="3" t="s">
         <v>254</v>
       </c>
@@ -5554,7 +5970,7 @@
       <c r="K162" s="17"/>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B163" s="70"/>
+      <c r="B163" s="88"/>
       <c r="C163" s="4">
         <v>12.6</v>
       </c>
@@ -5570,16 +5986,14 @@
       <c r="K163" s="36"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B164" s="70"/>
+      <c r="B164" s="88"/>
       <c r="C164" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D164" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="E164" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E164" s="12"/>
       <c r="F164" s="17"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -5588,7 +6002,7 @@
       <c r="K164" s="17"/>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B165" s="70"/>
+      <c r="B165" s="88"/>
       <c r="C165" s="3"/>
       <c r="D165" s="26"/>
       <c r="E165" s="11"/>
@@ -5612,13 +6026,13 @@
       <c r="K166" s="39"/>
     </row>
     <row r="167" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B167" s="69" t="s">
+      <c r="B167" s="87" t="s">
         <v>342</v>
       </c>
       <c r="C167" s="4">
         <v>13.1</v>
       </c>
-      <c r="D167" s="90" t="s">
+      <c r="D167" s="61" t="s">
         <v>259</v>
       </c>
       <c r="E167" s="34"/>
@@ -5630,16 +6044,14 @@
       <c r="K167" s="36"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B168" s="69"/>
+      <c r="B168" s="87"/>
       <c r="C168" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D168" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="E168" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E168" s="12"/>
       <c r="F168" s="17"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -5648,16 +6060,14 @@
       <c r="K168" s="18"/>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B169" s="69"/>
+      <c r="B169" s="87"/>
       <c r="C169" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D169" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="E169" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E169" s="12"/>
       <c r="F169" s="17"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -5666,7 +6076,7 @@
       <c r="K169" s="18"/>
     </row>
     <row r="170" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B170" s="69"/>
+      <c r="B170" s="87"/>
       <c r="C170" s="4">
         <v>13.2</v>
       </c>
@@ -5682,7 +6092,7 @@
       <c r="K170" s="36"/>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B171" s="69"/>
+      <c r="B171" s="87"/>
       <c r="C171" s="3" t="s">
         <v>264</v>
       </c>
@@ -5698,7 +6108,7 @@
       <c r="K171" s="18"/>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B172" s="69"/>
+      <c r="B172" s="87"/>
       <c r="C172" s="3" t="s">
         <v>266</v>
       </c>
@@ -5714,7 +6124,7 @@
       <c r="K172" s="18"/>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B173" s="69"/>
+      <c r="B173" s="87"/>
       <c r="C173" s="3" t="s">
         <v>268</v>
       </c>
@@ -5742,7 +6152,7 @@
       <c r="K174" s="39"/>
     </row>
     <row r="175" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B175" s="61" t="s">
+      <c r="B175" s="79" t="s">
         <v>343</v>
       </c>
       <c r="C175" s="4">
@@ -5760,16 +6170,14 @@
       <c r="K175" s="36"/>
     </row>
     <row r="176" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B176" s="62"/>
+      <c r="B176" s="80"/>
       <c r="C176" s="3" t="s">
         <v>271</v>
       </c>
       <c r="D176" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="E176" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E176" s="12"/>
       <c r="F176" s="17"/>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
@@ -5778,7 +6186,7 @@
       <c r="K176" s="18"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B177" s="62"/>
+      <c r="B177" s="80"/>
       <c r="C177" s="3" t="s">
         <v>273</v>
       </c>
@@ -5794,7 +6202,7 @@
       <c r="K177" s="18"/>
     </row>
     <row r="178" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B178" s="62"/>
+      <c r="B178" s="80"/>
       <c r="C178" s="3" t="s">
         <v>275</v>
       </c>
@@ -5810,7 +6218,7 @@
       <c r="K178" s="18"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B179" s="62"/>
+      <c r="B179" s="80"/>
       <c r="C179" s="3" t="s">
         <v>277</v>
       </c>
@@ -5826,16 +6234,14 @@
       <c r="K179" s="18"/>
     </row>
     <row r="180" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B180" s="63"/>
+      <c r="B180" s="81"/>
       <c r="C180" s="3" t="s">
         <v>279</v>
       </c>
       <c r="D180" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="E180" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E180" s="12"/>
       <c r="F180" s="17"/>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
@@ -5856,7 +6262,7 @@
       <c r="K181" s="22"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B182" s="61" t="s">
+      <c r="B182" s="79" t="s">
         <v>344</v>
       </c>
       <c r="C182" s="4">
@@ -5874,7 +6280,7 @@
       <c r="K182" s="35"/>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B183" s="62"/>
+      <c r="B183" s="80"/>
       <c r="C183" s="3" t="s">
         <v>282</v>
       </c>
@@ -5890,7 +6296,7 @@
       <c r="K183" s="15"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B184" s="62"/>
+      <c r="B184" s="80"/>
       <c r="C184" s="3" t="s">
         <v>284</v>
       </c>
@@ -5906,16 +6312,14 @@
       <c r="K184" s="16"/>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B185" s="62"/>
+      <c r="B185" s="80"/>
       <c r="C185" s="3" t="s">
         <v>286</v>
       </c>
       <c r="D185" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E185" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E185" s="12"/>
       <c r="F185" s="17"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -5924,7 +6328,7 @@
       <c r="K185" s="15"/>
     </row>
     <row r="186" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B186" s="62"/>
+      <c r="B186" s="80"/>
       <c r="C186" s="3" t="s">
         <v>288</v>
       </c>
@@ -5940,16 +6344,14 @@
       <c r="K186" s="18"/>
     </row>
     <row r="187" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B187" s="62"/>
+      <c r="B187" s="80"/>
       <c r="C187" s="3" t="s">
         <v>290</v>
       </c>
       <c r="D187" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="E187" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E187" s="12"/>
       <c r="F187" s="17"/>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -5958,16 +6360,14 @@
       <c r="K187" s="15"/>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B188" s="62"/>
+      <c r="B188" s="80"/>
       <c r="C188" s="3" t="s">
         <v>292</v>
       </c>
       <c r="D188" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="E188" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E188" s="12"/>
       <c r="F188" s="18"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -5976,7 +6376,7 @@
       <c r="K188" s="15"/>
     </row>
     <row r="189" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B189" s="62"/>
+      <c r="B189" s="80"/>
       <c r="C189" s="4">
         <v>15.2</v>
       </c>
@@ -5992,43 +6392,39 @@
       <c r="K189" s="35"/>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B190" s="62"/>
+      <c r="B190" s="80"/>
       <c r="C190" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D190" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="E190" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E190" s="12"/>
       <c r="F190" s="17"/>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
-      <c r="K190" s="67"/>
+      <c r="K190" s="85"/>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B191" s="62"/>
+      <c r="B191" s="80"/>
       <c r="C191" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D191" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="E191" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E191" s="12"/>
       <c r="F191" s="17"/>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
-      <c r="K191" s="68"/>
+      <c r="K191" s="86"/>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B192" s="62"/>
+      <c r="B192" s="80"/>
       <c r="C192" s="4">
         <v>15.3</v>
       </c>
@@ -6044,16 +6440,14 @@
       <c r="K192" s="35"/>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B193" s="62"/>
+      <c r="B193" s="80"/>
       <c r="C193" s="3" t="s">
         <v>300</v>
       </c>
       <c r="D193" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="E193" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E193" s="12"/>
       <c r="F193" s="17"/>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -6062,16 +6456,14 @@
       <c r="K193" s="15"/>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B194" s="62"/>
+      <c r="B194" s="80"/>
       <c r="C194" s="3" t="s">
         <v>302</v>
       </c>
       <c r="D194" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="E194" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="E194" s="12"/>
       <c r="F194" s="17"/>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -6080,7 +6472,7 @@
       <c r="K194" s="15"/>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B195" s="63"/>
+      <c r="B195" s="81"/>
       <c r="C195" s="11"/>
       <c r="D195" s="33"/>
       <c r="E195" s="12"/>
@@ -6122,40 +6514,40 @@
       <c r="K202" s="7"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B203" s="64"/>
-      <c r="C203" s="64"/>
-      <c r="D203" s="64"/>
-      <c r="E203" s="64"/>
-      <c r="F203" s="64"/>
-      <c r="G203" s="64"/>
-      <c r="H203" s="64"/>
-      <c r="I203" s="64"/>
-      <c r="J203" s="64"/>
-      <c r="K203" s="64"/>
+      <c r="B203" s="82"/>
+      <c r="C203" s="82"/>
+      <c r="D203" s="82"/>
+      <c r="E203" s="82"/>
+      <c r="F203" s="82"/>
+      <c r="G203" s="82"/>
+      <c r="H203" s="82"/>
+      <c r="I203" s="82"/>
+      <c r="J203" s="82"/>
+      <c r="K203" s="82"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B204" s="64"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
-      <c r="H204" s="64"/>
-      <c r="I204" s="64"/>
-      <c r="J204" s="64"/>
-      <c r="K204" s="64"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="82"/>
+      <c r="D204" s="82"/>
+      <c r="E204" s="82"/>
+      <c r="F204" s="82"/>
+      <c r="G204" s="82"/>
+      <c r="H204" s="82"/>
+      <c r="I204" s="82"/>
+      <c r="J204" s="82"/>
+      <c r="K204" s="82"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B205" s="64"/>
-      <c r="C205" s="64"/>
-      <c r="D205" s="64"/>
-      <c r="E205" s="64"/>
-      <c r="F205" s="64"/>
-      <c r="G205" s="64"/>
-      <c r="H205" s="64"/>
-      <c r="I205" s="64"/>
-      <c r="J205" s="64"/>
-      <c r="K205" s="64"/>
+      <c r="B205" s="82"/>
+      <c r="C205" s="82"/>
+      <c r="D205" s="82"/>
+      <c r="E205" s="82"/>
+      <c r="F205" s="82"/>
+      <c r="G205" s="82"/>
+      <c r="H205" s="82"/>
+      <c r="I205" s="82"/>
+      <c r="J205" s="82"/>
+      <c r="K205" s="82"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B206"/>
